--- a/resources/model_parameters/ModelParameters.xlsx
+++ b/resources/model_parameters/ModelParameters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22416"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savethong/PAVIR/Visual/TeamDataTables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350441C1-48A9-9742-99A3-80D720A8AE74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="5300" windowWidth="14680" windowHeight="15540" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="24880" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCParams" sheetId="1" r:id="rId1"/>
@@ -23,20 +29,20 @@
     <definedName name="sta3n">[1]Control!$D$2</definedName>
     <definedName name="stations">OFFSET([1]Hidden!$B$1,0,0,COUNTA([1]Hidden!$B:$B),1)</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="215">
   <si>
     <t>An estimate of the median total weekly number of psychotherapy appointments available with this team. The estimate is calculated using the volume of psychotherapy visits completed with the team over one year. (appt/wk)</t>
   </si>
@@ -161,15 +167,9 @@
     <t>An estimate of the team's appointment slots allocated to each diagnosis for clinics where the provider does not have a DEA X waiver. Evidence-based pharmacotherapy for OUD is not possible in these slots. (pct)</t>
   </si>
   <si>
-    <t>Slots Allocation (without X waiver)</t>
-  </si>
-  <si>
     <t>An estimate of the team's appointment slots allocated to each diagnosis for clinics where the provider has a DEA X waiver. Evidence-based pharmacotherapy for OUD is possible in these slots. (pct)</t>
   </si>
   <si>
-    <t>Slots Allocation (with X waiver)</t>
-  </si>
-  <si>
     <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient in the cohort, their first and last medication management visits were found and subtracted to get an engagement time in weeks.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
@@ -215,27 +215,15 @@
     <t>An estimate of the proportion of the team's patients with opioid use disorder (OUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of OUD within the patient's first three months.</t>
   </si>
   <si>
-    <t>%OUD within 3 months</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with alcohol use disorder (AUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of AUD within the patient's first three months.</t>
   </si>
   <si>
-    <t>%AUD within 3 months</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with depression (DEP), calculated from the cohort of patients who completed visits charted with a primary diagnosis of DEP within the patient's first three months.</t>
   </si>
   <si>
-    <t>%Dep within 3 months</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with post traumatic stress disorder (PTSD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of PTSD within the patient's first three months.</t>
   </si>
   <si>
-    <t>%PTSD within 3 months</t>
-  </si>
-  <si>
     <t>An estimate of the proportion of the team's patients with opioid use disorder (OUD), calculated from the cohort of patients who completed visits charted with a primary diagnosis of OUD within their entire psychotherapy engagement.</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t>An estimate of the proportion of the team's patients with depression (DEP), calculated from the cohort of patients who completed visits charted with a primary diagnosis of DEP within their entire psychotherapy engagement.</t>
   </si>
   <si>
-    <t>%Dep</t>
-  </si>
-  <si>
     <t>These diagnostic proportions are estimated from the patient cohort (see the DataNotes tab for details) by simply counting how many patients have a visit with the given primary diagnosis and then dividing by the cohort size. Note that the proportions can and should sum to more than one, because many patients have multiple diagnoses and get care for each in different visits which are they coded with different primary diagnoses.</t>
   </si>
   <si>
@@ -491,18 +476,12 @@
     <t>The median return-to-clinic visit interval by encounter type bin with this team, calculated from the number of visits per patient over their entire engagement time. (wks)</t>
   </si>
   <si>
-    <t>Return Visit Interval</t>
-  </si>
-  <si>
     <t>These estimates were calculated from the visit timelines of the patient cohort. For each "new patient" (see new patient start rate below for details), their first visit was found, and all visits within three months after that visit were broken out into the encounter bins. These referral percentages are the proportions of the different services (encounter type bins) received within that window, per "new patient." The referral percentage for intakes is set to 1, based on the idea that the decision about what services the patient should get is an "intake/evaluation" or review visit in the model, regardless of how that visit was actually coded. Note that this is different from the appointment supply number shown above, which does use the CPT codes on visits. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
     <t>The proportion of patients who receive visits for each service with this team. Note that the percentages sum to more than one, because patients may engage in multiple services concurrently. (pct)</t>
   </si>
   <si>
-    <t>Referral Percentage</t>
-  </si>
-  <si>
     <t>These estimates were calculated directly from the visit timelines of the patient cohort.  For each patient, their first and last visits of each type were found and subtracted to get an engagement time in weeks. The engagement times shown are for the median patient.  Note that the first visit could be years ago, and the last visit could be the day before the query was run. Also, note that gaps in treatment are bridged, regardless of how long the gap is. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
@@ -515,9 +494,6 @@
     <t>An estimate of the weekly hours available with this team for each service.   The estimate is calculated using the volume of visits for each service with this team over one year. (appt/wk)</t>
   </si>
   <si>
-    <t>Appointment Supply</t>
-  </si>
-  <si>
     <t>These estimates were calculated from the visits and appointments of the patient cohort.  Note that missed appointments do not have an associated visit record, and so do not have an encounter type. Therefore, these missed appointment percentages by encounter type bin were estimated by using patient characteristics: all the patients who had had a visit of a certain encounter type with this team have all their missed appointments counted towards that encounter type. See the DataNotes tab for details on the patient cohort and the encounter type bins.</t>
   </si>
   <si>
@@ -675,13 +651,205 @@
   </si>
   <si>
     <t>New Patient Wait Time (wks)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slots Allocation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (with X waiver)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slots Allocation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> %</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (without X waiver)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Patient Start Rate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(mean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appointment Supply </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(median)</t>
+    </r>
+  </si>
+  <si>
+    <t>Service Proportions from Team Data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Return Visit Interval </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>(median)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PTSD within 3 months </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AUD within 3 months </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OUD within 3 months </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>EP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>EP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> within 3 months </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initiators Who Quit Early </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Duration</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,8 +920,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +943,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -846,7 +1037,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,6 +1167,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1003,7 +1199,7 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1019,7 +1215,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control"/>
@@ -2104,22 +2300,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="126" style="2" customWidth="1"/>
@@ -2128,7 +2324,7 @@
     <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28">
+    <row r="1" spans="1:4" ht="32">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -2153,7 +2349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -2167,7 +2363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28">
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28">
+    <row r="5" spans="1:4" ht="32">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2195,7 +2391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28">
+    <row r="6" spans="1:4" ht="32">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28">
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2231,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28">
+    <row r="9" spans="1:4" ht="32">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28">
+    <row r="10" spans="1:4" ht="32">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="42">
+    <row r="11" spans="1:4" ht="48">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42">
+    <row r="12" spans="1:4" ht="48">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2313,15 +2509,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="109.5" style="16" customWidth="1"/>
@@ -2331,7 +2527,7 @@
     <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="32">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -2348,7 +2544,7 @@
         <v>0.13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>29</v>
@@ -2371,12 +2567,12 @@
         <v>0.75</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="28">
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2393,13 +2589,13 @@
         <v>0.19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2416,13 +2612,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28">
+    <row r="5" spans="1:9" ht="32">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -2439,13 +2635,13 @@
         <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28">
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2462,11 +2658,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="28">
+    <row r="7" spans="1:9" ht="32">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2483,11 +2679,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="28">
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -2504,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28">
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2527,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -2550,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42">
+    <row r="11" spans="1:9" ht="48">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2573,13 +2769,13 @@
         <v>69</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="48">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -2596,15 +2792,15 @@
         <v>69</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28">
-      <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32">
+      <c r="A13" s="63" t="s">
+        <v>203</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -2619,15 +2815,15 @@
         <v>0.92</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
+    <row r="14" spans="1:9" ht="32">
+      <c r="A14" s="63" t="s">
+        <v>204</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -2648,7 +2844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28">
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -2681,7 +2877,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" ht="16">
       <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
@@ -2708,15 +2904,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
@@ -2730,116 +2926,116 @@
     <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="34" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="42">
+    <row r="3" spans="1:6" ht="48">
       <c r="A3" s="53" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C3" s="19">
         <v>0.1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48">
       <c r="A4" s="53"/>
       <c r="B4" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C4" s="19">
         <v>0.18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="28">
+    <row r="5" spans="1:6" ht="32">
       <c r="A5" s="53"/>
       <c r="B5" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C5" s="19">
         <v>0.06</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" s="48"/>
     </row>
-    <row r="6" spans="1:6" ht="42">
+    <row r="6" spans="1:6" ht="48">
       <c r="A6" s="53"/>
       <c r="B6" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C6" s="19">
         <v>0.76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6" ht="32">
       <c r="A7" s="54"/>
       <c r="B7" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" s="19">
         <v>0.35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C8" s="29">
         <v>1</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="56"/>
       <c r="B9" s="33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C9" s="33">
         <v>2</v>
@@ -2851,7 +3047,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="56"/>
       <c r="B10" s="33" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C10" s="33">
         <v>2</v>
@@ -2862,7 +3058,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="56"/>
       <c r="B11" s="33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
@@ -2873,7 +3069,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="56"/>
       <c r="B12" s="33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C12" s="19">
         <v>1</v>
@@ -2883,21 +3079,21 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="56"/>
-      <c r="B13" s="33" t="s">
-        <v>109</v>
+      <c r="B13" s="67" t="s">
+        <v>214</v>
       </c>
       <c r="C13" s="19">
         <v>2</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="54"/>
       <c r="B14" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C14" s="19">
         <v>8</v>
@@ -2907,25 +3103,25 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" s="29">
         <v>18</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="56"/>
       <c r="B16" s="33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C16" s="33">
         <v>15</v>
@@ -2936,7 +3132,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="56"/>
       <c r="B17" s="33" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C17" s="30">
         <v>7</v>
@@ -2947,7 +3143,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="56"/>
       <c r="B18" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="29">
         <v>4</v>
@@ -2958,7 +3154,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="56"/>
       <c r="B19" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C19" s="33">
         <v>4</v>
@@ -2969,7 +3165,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="56"/>
       <c r="B20" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C20" s="30">
         <v>4</v>
@@ -2980,7 +3176,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="56"/>
       <c r="B21" s="29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C21" s="29">
         <v>2</v>
@@ -2991,7 +3187,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="56"/>
       <c r="B22" s="33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
@@ -3002,7 +3198,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="56"/>
       <c r="B23" s="33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C23" s="19">
         <v>3</v>
@@ -3013,20 +3209,20 @@
     <row r="24" spans="1:5">
       <c r="A24" s="56"/>
       <c r="B24" s="29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C24" s="29">
         <v>36</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="56"/>
       <c r="B25" s="33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C25" s="19">
         <v>76</v>
@@ -3037,7 +3233,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="56"/>
       <c r="B26" s="33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C26" s="19">
         <v>104</v>
@@ -3048,7 +3244,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="56"/>
       <c r="B27" s="29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C27" s="29">
         <v>14</v>
@@ -3059,7 +3255,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="56"/>
       <c r="B28" s="33" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C28" s="19">
         <v>33</v>
@@ -3070,7 +3266,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="56"/>
       <c r="B29" s="33" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C29" s="19">
         <v>66</v>
@@ -3081,7 +3277,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="56"/>
       <c r="B30" s="29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
@@ -3092,7 +3288,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="56"/>
       <c r="B31" s="33" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C31" s="19">
         <v>29</v>
@@ -3103,7 +3299,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="54"/>
       <c r="B32" s="33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" s="19">
         <v>53</v>
@@ -3111,26 +3307,26 @@
       <c r="D32" s="57"/>
       <c r="E32" s="48"/>
     </row>
-    <row r="33" spans="1:5" ht="28">
+    <row r="33" spans="1:5" ht="32">
       <c r="A33" s="32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33" s="29">
         <v>4.25</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="42">
+    <row r="34" spans="1:5" ht="48">
       <c r="A34" s="49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>14</v>
@@ -3145,7 +3341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28">
+    <row r="35" spans="1:5" ht="48">
       <c r="A35" s="50"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
@@ -3160,7 +3356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28">
+    <row r="36" spans="1:5" ht="32">
       <c r="A36" s="51"/>
       <c r="B36" s="30" t="s">
         <v>10</v>
@@ -3169,27 +3365,27 @@
         <v>64</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28">
+    <row r="37" spans="1:5" ht="32">
       <c r="A37" s="49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C37" s="29">
         <v>388</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3210,111 +3406,111 @@
       <c r="D39" s="26"/>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:5" ht="42">
+    <row r="40" spans="1:5" ht="48">
       <c r="A40" s="49" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>0.97</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="48">
       <c r="A41" s="52"/>
-      <c r="B41" t="s">
-        <v>71</v>
+      <c r="B41" s="66" t="s">
+        <v>212</v>
       </c>
       <c r="C41">
         <v>0.05</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E41" s="48"/>
     </row>
-    <row r="42" spans="1:5" ht="42">
+    <row r="42" spans="1:5" ht="48">
       <c r="A42" s="52"/>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E42" s="48"/>
     </row>
-    <row r="43" spans="1:5" ht="42">
+    <row r="43" spans="1:5" ht="48">
       <c r="A43" s="52"/>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E43" s="48"/>
     </row>
-    <row r="44" spans="1:5" ht="42">
+    <row r="44" spans="1:5" ht="48">
       <c r="A44" s="52"/>
-      <c r="B44" t="s">
-        <v>65</v>
+      <c r="B44" s="66" t="s">
+        <v>209</v>
       </c>
       <c r="C44">
         <v>0.97</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E44" s="48"/>
     </row>
-    <row r="45" spans="1:5" ht="28">
+    <row r="45" spans="1:5" ht="32">
       <c r="A45" s="52"/>
-      <c r="B45" t="s">
-        <v>63</v>
+      <c r="B45" s="66" t="s">
+        <v>213</v>
       </c>
       <c r="C45">
         <v>0.05</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E45" s="48"/>
     </row>
-    <row r="46" spans="1:5" ht="28">
+    <row r="46" spans="1:5" ht="48">
       <c r="A46" s="52"/>
-      <c r="B46" t="s">
-        <v>61</v>
+      <c r="B46" s="66" t="s">
+        <v>210</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E46" s="48"/>
     </row>
-    <row r="47" spans="1:5" ht="28">
+    <row r="47" spans="1:5" ht="48">
       <c r="A47" s="52"/>
-      <c r="B47" t="s">
-        <v>59</v>
+      <c r="B47" s="66" t="s">
+        <v>211</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="48"/>
     </row>
@@ -3345,15 +3541,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.5" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="8.83203125" style="35"/>
@@ -3364,7 +3560,7 @@
     <col min="13" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="70">
+    <row r="1" spans="1:14" ht="80">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -3390,15 +3586,15 @@
         <v>0.18</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="84">
-      <c r="A2" s="19" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="96">
+      <c r="A2" s="64" t="s">
+        <v>206</v>
       </c>
       <c r="B2" s="19">
         <v>3</v>
@@ -3422,13 +3618,13 @@
         <v>2</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="98">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="112">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -3454,15 +3650,15 @@
         <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="98">
-      <c r="A4" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="112">
+      <c r="A4" s="65" t="s">
+        <v>207</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -3486,15 +3682,15 @@
         <v>0.15</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="56">
-      <c r="A5" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="80">
+      <c r="A5" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -3518,15 +3714,15 @@
         <v>2</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="126">
-      <c r="A6" s="19" t="s">
-        <v>83</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="144">
+      <c r="A6" s="64" t="s">
+        <v>205</v>
       </c>
       <c r="B6" s="19">
         <v>9.3800000000000008</v>
@@ -3550,15 +3746,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B7" s="33">
         <v>0</v>
@@ -3583,12 +3779,12 @@
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="58" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B8" s="33">
         <v>7.0000000000000007E-2</v>
@@ -3616,7 +3812,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="33" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B9" s="33">
         <v>0</v>
@@ -3644,7 +3840,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B10" s="33">
         <v>0.91</v>
@@ -3676,7 +3872,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B11" s="33">
         <v>0.57999999999999996</v>
@@ -3708,28 +3904,28 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="41" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
@@ -3869,15 +4065,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.83203125" style="46" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -3886,41 +4082,41 @@
     <col min="5" max="5" width="78.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="60" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C2" s="47">
         <v>6.7692300000000003</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
       <c r="A3" s="60"/>
       <c r="B3" s="47" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C3" s="47">
         <v>1.0384610000000001</v>
@@ -3931,7 +4127,7 @@
     <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="60"/>
       <c r="B4" s="47" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C4" s="47">
         <v>9.6153000000000002E-2</v>
@@ -3941,25 +4137,25 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C5" s="47">
         <v>5.7692E-2</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="60"/>
       <c r="B6" s="47" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C6" s="47">
         <v>0.115384</v>
@@ -3970,7 +4166,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="60"/>
       <c r="B7" s="47" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C7" s="47">
         <v>1.9230000000000001E-2</v>
@@ -3980,25 +4176,25 @@
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1">
       <c r="A8" s="60" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C8" s="47">
         <v>37.428570999999998</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.25" customHeight="1">
       <c r="A9" s="60"/>
       <c r="B9" s="47" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C9" s="47">
         <v>25.428570999999998</v>
@@ -4009,7 +4205,7 @@
     <row r="10" spans="1:5" ht="32.25" customHeight="1">
       <c r="A10" s="60"/>
       <c r="B10" s="47" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C10" s="47">
         <v>43.428570999999998</v>
@@ -4019,25 +4215,25 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C11" s="47">
         <v>44.071427999999997</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="60"/>
       <c r="B12" s="47" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C12" s="47">
         <v>4.8571419999999996</v>
@@ -4048,7 +4244,7 @@
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="60"/>
       <c r="B13" s="47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C13" s="47">
         <v>0</v>
@@ -4058,25 +4254,25 @@
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1">
       <c r="A14" s="60" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C14" s="47">
         <v>45.571427999999997</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1">
       <c r="A15" s="60"/>
       <c r="B15" s="47" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C15" s="47">
         <v>68</v>
@@ -4087,7 +4283,7 @@
     <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="A16" s="60"/>
       <c r="B16" s="47" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C16" s="47">
         <v>48.714284999999997</v>
@@ -4098,7 +4294,7 @@
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
       <c r="A17" s="60"/>
       <c r="B17" s="47" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C17" s="47">
         <v>18.714285</v>
@@ -4109,7 +4305,7 @@
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
       <c r="A18" s="60"/>
       <c r="B18" s="47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C18" s="47">
         <v>14.571427999999999</v>
@@ -4120,7 +4316,7 @@
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
       <c r="A19" s="60"/>
       <c r="B19" s="47" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C19" s="47">
         <v>62</v>
@@ -4130,25 +4326,25 @@
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="60" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C20" s="47">
         <v>37.428570999999998</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="60"/>
       <c r="B21" s="47" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C21" s="47">
         <v>44.928571000000005</v>
@@ -4159,7 +4355,7 @@
     <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="60"/>
       <c r="B22" s="47" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C22" s="47">
         <v>68.142857000000006</v>
@@ -4169,25 +4365,25 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="60" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C23" s="47">
         <v>22.142856999999999</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="60"/>
       <c r="B24" s="47" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C24" s="47">
         <v>28</v>
@@ -4198,7 +4394,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="60"/>
       <c r="B25" s="47" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C25" s="47">
         <v>27</v>
@@ -4209,7 +4405,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="60"/>
       <c r="B26" s="47" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C26" s="47">
         <v>14.642856500000001</v>
@@ -4220,7 +4416,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="60"/>
       <c r="B27" s="47" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C27" s="47">
         <v>39.571427999999997</v>
@@ -4231,7 +4427,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="60"/>
       <c r="B28" s="47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C28" s="47">
         <v>6.571428</v>
@@ -4241,25 +4437,25 @@
     </row>
     <row r="29" spans="1:5" ht="38.25" customHeight="1">
       <c r="A29" s="60" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C29" s="47">
         <v>0.45488721804499999</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.25" customHeight="1">
       <c r="A30" s="60"/>
       <c r="B30" s="47" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C30" s="47">
         <v>3.8004750593E-2</v>
@@ -4270,7 +4466,7 @@
     <row r="31" spans="1:5" ht="38.25" customHeight="1">
       <c r="A31" s="60"/>
       <c r="B31" s="47" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C31" s="47">
         <v>5.6338028169E-2</v>
@@ -4280,10 +4476,10 @@
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="A32" s="60" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -4292,7 +4488,7 @@
     <row r="33" spans="1:3">
       <c r="A33" s="60"/>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C33">
         <v>52</v>
@@ -4301,7 +4497,7 @@
     <row r="34" spans="1:3">
       <c r="A34" s="60"/>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -4309,10 +4505,10 @@
     </row>
     <row r="35" spans="1:3" ht="45" customHeight="1">
       <c r="A35" s="60" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4321,7 +4517,7 @@
     <row r="36" spans="1:3">
       <c r="A36" s="60"/>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4330,7 +4526,7 @@
     <row r="37" spans="1:3">
       <c r="A37" s="60"/>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4338,10 +4534,10 @@
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="A38" s="60" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4350,7 +4546,7 @@
     <row r="39" spans="1:3">
       <c r="A39" s="60"/>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4358,10 +4554,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="60" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -4370,7 +4566,7 @@
     <row r="41" spans="1:3">
       <c r="A41" s="60"/>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -4379,7 +4575,7 @@
     <row r="42" spans="1:3">
       <c r="A42" s="60"/>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -4387,19 +4583,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="E11:E13"/>
@@ -4409,12 +4598,19 @@
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/resources/model_parameters/ModelParameters.xlsx
+++ b/resources/model_parameters/ModelParameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\R04BHSNAS20.v01.med.va.gov\vhabhsrustt$\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/savethong/PAVIR/Visual/TeamDataTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB4FC30-16B7-C041-9D9A-259A91EE707D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8895" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="17460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCParams" sheetId="1" r:id="rId1"/>
@@ -499,24 +500,12 @@
     <t>The proportion of appointments for each service with this team that no-showed or were cancelled after the appointment was supposed to have happened. (pct)</t>
   </si>
   <si>
-    <t>SMH High Symptom %</t>
-  </si>
-  <si>
-    <t>GMH High Symptom %</t>
-  </si>
-  <si>
     <t>To be included in the high symptom group, the patient must: be assigned a high risk for suicide flag, have an inpatient MH stay, transfer to SMH, or transfer to GMH from PCMHI.</t>
   </si>
   <si>
     <t>An estimate of the proportion of patients who have high symptoms for that location, based on the proportion of patients who step up to a higher level of care or risk during their engagement with that location. The model takes these step up proportions into account to determine initial symptom rates and treatment effects for each location. (pct)</t>
   </si>
   <si>
-    <t>PCMHI High Symptom %</t>
-  </si>
-  <si>
-    <t>Symptom Proportions</t>
-  </si>
-  <si>
     <t>SMH to GMH (median)</t>
   </si>
   <si>
@@ -622,13 +611,7 @@
     <t>New Patient Start Rate (pts/wk)</t>
   </si>
   <si>
-    <t>High Risk Flag Rates (pts/wk)</t>
-  </si>
-  <si>
     <t>Time to Unflag High Risk Patients (wks)</t>
-  </si>
-  <si>
-    <t>Time from Flag to Clean Transfer (wks)</t>
   </si>
   <si>
     <t>Engagement Time before Step up/down (wks)</t>
@@ -843,12 +826,92 @@
       <t>Duration</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>High</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Symptom Proportions</t>
+    </r>
+  </si>
+  <si>
+    <t>PCMHI  %</t>
+  </si>
+  <si>
+    <t>GMH  %</t>
+  </si>
+  <si>
+    <t>SMH  %</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">High Risk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Patient</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Flag Rates (pts/wk)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time from Flag to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">Step up/down </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(wks)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +993,13 @@
       <color rgb="FF00B050"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +1021,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1110,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1126,6 +1200,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1163,14 +1238,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1198,7 +1277,7 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2306,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -2314,16 +2393,16 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="126" style="2" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="94.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="32">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -2348,7 +2427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="32">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="32">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +2455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2390,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="32">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="32">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2426,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4" ht="32">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -2440,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="32">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -2454,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45">
+    <row r="11" spans="1:4" ht="48">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="48">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2508,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -2516,17 +2595,17 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="109.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="16"/>
-    <col min="8" max="8" width="7.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="94.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="16"/>
+    <col min="8" max="8" width="7.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="36.5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="32">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -2571,7 +2650,7 @@
       <c r="G2" s="1"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2594,7 +2673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2617,7 +2696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="32">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -2640,7 +2719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2661,7 +2740,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="32">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2761,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="45">
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -2705,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45">
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2751,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60">
+    <row r="11" spans="1:9" ht="48">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="48">
       <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
@@ -2797,9 +2876,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="32">
       <c r="A13" s="48" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -2820,9 +2899,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="32">
       <c r="A14" s="48" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -2843,7 +2922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45">
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -2876,7 +2955,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" ht="16">
       <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
@@ -2903,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:F47"/>
   <sheetViews>
@@ -2911,21 +2990,21 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88" style="2" customWidth="1"/>
-    <col min="5" max="5" width="85.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" customWidth="1"/>
-    <col min="10" max="10" width="94.7109375" customWidth="1"/>
+    <col min="5" max="5" width="85.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="55.5" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="34" t="s">
         <v>125</v>
       </c>
@@ -2943,8 +3022,8 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:6" ht="48">
+      <c r="A3" s="59" t="s">
         <v>120</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -2956,12 +3035,12 @@
       <c r="D3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:6" ht="48">
+      <c r="A4" s="59"/>
       <c r="B4" s="19" t="s">
         <v>116</v>
       </c>
@@ -2971,11 +3050,11 @@
       <c r="D4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:6" ht="32">
+      <c r="A5" s="59"/>
       <c r="B5" s="19" t="s">
         <v>114</v>
       </c>
@@ -2985,10 +3064,10 @@
       <c r="D5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="58"/>
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" spans="1:6" ht="48">
+      <c r="A6" s="59"/>
       <c r="B6" s="19" t="s">
         <v>112</v>
       </c>
@@ -2998,11 +3077,11 @@
       <c r="D6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="45">
-      <c r="A7" s="59"/>
+    <row r="7" spans="1:6" ht="32">
+      <c r="A7" s="60"/>
       <c r="B7" s="19" t="s">
         <v>110</v>
       </c>
@@ -3012,10 +3091,10 @@
       <c r="D7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -3024,84 +3103,84 @@
       <c r="C8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="54" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="33">
         <v>2</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="61"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C10" s="33">
         <v>2</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="61"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="33" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="61"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="61"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="52" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C13" s="19">
         <v>2</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>101</v>
       </c>
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="33" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="19">
         <v>8</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -3110,203 +3189,203 @@
       <c r="C15" s="29">
         <v>18</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="54" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="61"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="33" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="33">
         <v>15</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="61"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="33" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="30">
         <v>7</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="61"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="29" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="29">
         <v>4</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="61"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C19" s="33">
         <v>4</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="53"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="61"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="33" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="30">
         <v>4</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="29" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="29">
         <v>2</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="61"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="19">
         <v>2</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="53"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="61"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="19">
         <v>3</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="53"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="29" t="s">
         <v>87</v>
       </c>
       <c r="C24" s="29">
         <v>36</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="19">
         <v>76</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="53"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="61"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="19">
         <v>104</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="53"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="29" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="29">
         <v>14</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="53"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="54"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="19">
         <v>33</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="19">
         <v>66</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="53"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="61"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C30" s="29">
         <v>12</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="19">
         <v>29</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="53"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="19">
         <v>53</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="53"/>
-    </row>
-    <row r="33" spans="1:5" ht="45">
+      <c r="D32" s="63"/>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="32">
       <c r="A33" s="32" t="s">
         <v>77</v>
       </c>
@@ -3323,8 +3402,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:5" ht="48">
+      <c r="A34" s="55" t="s">
         <v>74</v>
       </c>
       <c r="B34" s="31" t="s">
@@ -3340,8 +3419,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="55"/>
+    <row r="35" spans="1:5" ht="48">
+      <c r="A35" s="56"/>
       <c r="B35" s="28" t="s">
         <v>12</v>
       </c>
@@ -3355,8 +3434,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45">
-      <c r="A36" s="56"/>
+    <row r="36" spans="1:5" ht="32">
+      <c r="A36" s="57"/>
       <c r="B36" s="30" t="s">
         <v>10</v>
       </c>
@@ -3370,8 +3449,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="54" t="s">
+    <row r="37" spans="1:5" ht="32">
+      <c r="A37" s="55" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="29" t="s">
@@ -3388,7 +3467,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28">
         <v>0</v>
@@ -3397,7 +3476,7 @@
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="56"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27">
         <v>0</v>
@@ -3405,8 +3484,8 @@
       <c r="D39" s="26"/>
       <c r="E39" s="25"/>
     </row>
-    <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:5" ht="48">
+      <c r="A40" s="55" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
@@ -3418,14 +3497,14 @@
       <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45">
-      <c r="A41" s="57"/>
+    <row r="41" spans="1:5" ht="48">
+      <c r="A41" s="58"/>
       <c r="B41" s="51" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C41">
         <v>0.05</v>
@@ -3433,10 +3512,10 @@
       <c r="D41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="53"/>
-    </row>
-    <row r="42" spans="1:5" ht="45">
-      <c r="A42" s="57"/>
+      <c r="E41" s="54"/>
+    </row>
+    <row r="42" spans="1:5" ht="48">
+      <c r="A42" s="58"/>
       <c r="B42" t="s">
         <v>63</v>
       </c>
@@ -3446,10 +3525,10 @@
       <c r="D42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="53"/>
-    </row>
-    <row r="43" spans="1:5" ht="45">
-      <c r="A43" s="57"/>
+      <c r="E42" s="54"/>
+    </row>
+    <row r="43" spans="1:5" ht="48">
+      <c r="A43" s="58"/>
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -3459,12 +3538,12 @@
       <c r="D43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="53"/>
-    </row>
-    <row r="44" spans="1:5" ht="45">
-      <c r="A44" s="57"/>
+      <c r="E43" s="54"/>
+    </row>
+    <row r="44" spans="1:5" ht="48">
+      <c r="A44" s="58"/>
       <c r="B44" s="51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C44">
         <v>0.97</v>
@@ -3472,12 +3551,12 @@
       <c r="D44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="53"/>
-    </row>
-    <row r="45" spans="1:5" ht="45">
-      <c r="A45" s="57"/>
+      <c r="E44" s="54"/>
+    </row>
+    <row r="45" spans="1:5" ht="32">
+      <c r="A45" s="58"/>
       <c r="B45" s="51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C45">
         <v>0.05</v>
@@ -3485,12 +3564,12 @@
       <c r="D45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="53"/>
-    </row>
-    <row r="46" spans="1:5" ht="45">
-      <c r="A46" s="57"/>
+      <c r="E45" s="54"/>
+    </row>
+    <row r="46" spans="1:5" ht="48">
+      <c r="A46" s="58"/>
       <c r="B46" s="51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3498,12 +3577,12 @@
       <c r="D46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="53"/>
-    </row>
-    <row r="47" spans="1:5" ht="45">
-      <c r="A47" s="57"/>
+      <c r="E46" s="54"/>
+    </row>
+    <row r="47" spans="1:5" ht="48">
+      <c r="A47" s="58"/>
       <c r="B47" s="51" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3511,7 +3590,7 @@
       <c r="D47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="53"/>
+      <c r="E47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3540,7 +3619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:N29"/>
   <sheetViews>
@@ -3548,18 +3627,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.85546875" style="35"/>
-    <col min="9" max="9" width="36.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="94.7109375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="70.42578125" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="35"/>
+    <col min="1" max="1" width="33.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.83203125" style="35"/>
+    <col min="9" max="9" width="36.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="94.6640625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="70.5" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="90">
+    <row r="1" spans="1:14" ht="80">
       <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
@@ -3591,9 +3670,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105">
+    <row r="2" spans="1:14" ht="96">
       <c r="A2" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B2" s="19">
         <v>3</v>
@@ -3623,7 +3702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="135">
+    <row r="3" spans="1:14" ht="112">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -3655,9 +3734,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="135">
+    <row r="4" spans="1:14" ht="112">
       <c r="A4" s="50" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -3687,9 +3766,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="75">
+    <row r="5" spans="1:14" ht="80">
       <c r="A5" s="49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -3719,9 +3798,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="165">
+    <row r="6" spans="1:14" ht="144">
       <c r="A6" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B6" s="19">
         <v>9.3800000000000008</v>
@@ -3776,8 +3855,8 @@
       <c r="H7" s="33">
         <v>0.01</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3806,8 +3885,8 @@
       <c r="H8" s="33">
         <v>0.03</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="65"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="33" t="s">
@@ -3834,8 +3913,8 @@
       <c r="H9" s="33">
         <v>0</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="64"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="33" t="s">
@@ -3862,8 +3941,8 @@
       <c r="H10" s="33">
         <v>0.95</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="64"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="65"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -3894,8 +3973,8 @@
       <c r="H11" s="33">
         <v>0.1</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="65"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
@@ -4064,517 +4143,517 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="78.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="46" t="s">
         <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>182</v>
+      <c r="A2" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>178</v>
       </c>
       <c r="C2" s="47">
         <v>6.7692300000000003</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>183</v>
+      <c r="D2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A3" s="67"/>
-      <c r="B3" s="47" t="s">
-        <v>179</v>
+      <c r="A3" s="66"/>
+      <c r="B3" s="70" t="s">
+        <v>175</v>
       </c>
       <c r="C3" s="47">
         <v>1.0384610000000001</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="47" t="s">
-        <v>178</v>
+      <c r="A4" s="66"/>
+      <c r="B4" s="70" t="s">
+        <v>174</v>
       </c>
       <c r="C4" s="47">
         <v>9.6153000000000002E-2</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>193</v>
+      <c r="A5" s="68" t="s">
+        <v>213</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="47">
         <v>5.7692E-2</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>180</v>
+      <c r="D5" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="47">
         <v>0.115384</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" s="47">
         <v>1.9230000000000001E-2</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>194</v>
+      <c r="A8" s="66" t="s">
+        <v>189</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C8" s="47">
         <v>37.428570999999998</v>
       </c>
-      <c r="D8" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>176</v>
+      <c r="D8" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A9" s="67"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C9" s="47">
         <v>25.428570999999998</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A10" s="67"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C10" s="47">
         <v>43.428570999999998</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="67" t="s">
-        <v>195</v>
+      <c r="A11" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="47">
         <v>44.071427999999997</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>174</v>
+      <c r="D11" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="67"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="47" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" s="47">
         <v>4.8571419999999996</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="47">
         <v>0</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A14" s="67" t="s">
-        <v>196</v>
+      <c r="A14" s="66" t="s">
+        <v>190</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C14" s="47">
         <v>45.571427999999997</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>171</v>
+      <c r="D14" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A15" s="67"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="47">
         <v>68</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A16" s="67"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="47">
         <v>48.714284999999997</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A17" s="67"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="47">
         <v>18.714285</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A18" s="67"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="47">
         <v>14.571427999999999</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="67"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" s="47">
         <v>62</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A20" s="67" t="s">
-        <v>197</v>
+      <c r="A20" s="66" t="s">
+        <v>191</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20" s="47">
         <v>37.428570999999998</v>
       </c>
-      <c r="D20" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>168</v>
+      <c r="D20" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A21" s="67"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C21" s="47">
         <v>44.928571000000005</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A22" s="67"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="47">
         <v>68.142857000000006</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="67" t="s">
-        <v>198</v>
+      <c r="A23" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23" s="47">
         <v>22.142856999999999</v>
       </c>
-      <c r="D23" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>163</v>
+      <c r="D23" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="67"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C24" s="47">
         <v>28</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="67"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C25" s="47">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="67"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C26" s="47">
         <v>14.642856500000001</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="67"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="47">
         <v>39.571427999999997</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="67"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C28" s="47">
         <v>6.571428</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A29" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>156</v>
+      <c r="A29" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="C29" s="47">
         <v>0.45488721804499999</v>
       </c>
-      <c r="D29" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>154</v>
+      <c r="D29" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="47" t="s">
-        <v>153</v>
+      <c r="A30" s="68"/>
+      <c r="B30" s="53" t="s">
+        <v>211</v>
       </c>
       <c r="C30" s="47">
         <v>3.8004750593E-2</v>
       </c>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="31" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="47" t="s">
-        <v>152</v>
+      <c r="A31" s="68"/>
+      <c r="B31" s="53" t="s">
+        <v>212</v>
       </c>
       <c r="C31" s="47">
         <v>5.6338028169E-2</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="69"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="67" t="s">
-        <v>199</v>
+      <c r="A32" s="66" t="s">
+        <v>193</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C32" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="67"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C33" s="47">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="67"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C34" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" customHeight="1">
-      <c r="A35" s="67" t="s">
-        <v>200</v>
+      <c r="A35" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="67"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C36" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="67"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C37" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="A38" s="67" t="s">
-        <v>201</v>
+      <c r="A38" s="66" t="s">
+        <v>195</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C38" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="67"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C39" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="67" t="s">
-        <v>202</v>
+      <c r="A40" s="66" t="s">
+        <v>196</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C40" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="67"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C41" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C42" s="47">
         <v>4</v>
